--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191230.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/二期数据源_20191230.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\workspace\workfile\锐安项目文档\锐安项目二期\bi\数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="销售管理" sheetId="3" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工程售后!$A$1:$K$148</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>86153</author>
   </authors>
   <commentList>
-    <comment ref="B107" authorId="0">
+    <comment ref="B107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B121" authorId="0">
+    <comment ref="B121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0">
+    <comment ref="B127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B136" authorId="0">
+    <comment ref="B136" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B142" authorId="0">
+    <comment ref="B142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
     <author>86153</author>
   </authors>
   <commentList>
-    <comment ref="A30" authorId="0">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="447">
   <si>
     <t>BI模块</t>
   </si>
@@ -2003,6 +2008,100 @@
   </si>
   <si>
     <t>com.senlang.run.gcsh.module.ckeck.manage.domain.CheckProject</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业群</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计周期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态（已结项，暂停，未启动，进行中）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度（暂停，延期，正常）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范性得分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑得分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>千行代码bug率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目工时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目（隐性）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员（隐性）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（管理，产品，设计，测试，开发）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目维度（分群/一级部门，可下钻）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人-项目维度（分群/一级部门，可下钻）</t>
+  </si>
+  <si>
+    <t>是否在项目上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否报工</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员是否属于当前项目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财-项目维度（分群/一级部门，可下钻）</t>
+  </si>
+  <si>
+    <t>人力资源投入预算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源投入实际花费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于平均的未知维度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源投入偏差值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源投入偏差率</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2110,7 +2209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2159,8 +2258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2183,6 +2288,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2192,7 +2306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,22 +2570,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2509,7 +2635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2551,7 +2677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2586,7 +2712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2841,7 +2967,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2861,7 +2987,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="87"/>
+      <c r="A3" s="86"/>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +3005,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="87"/>
+      <c r="A4" s="86"/>
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +3023,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="87"/>
+      <c r="A5" s="86"/>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2915,7 +3041,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
+      <c r="A6" s="86"/>
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +3064,7 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2956,15 +3082,15 @@
       <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="89" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
+      <c r="A9" s="86"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2980,11 +3106,11 @@
       <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="87"/>
+      <c r="A10" s="86"/>
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -3000,11 +3126,11 @@
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="87"/>
+      <c r="A11" s="86"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -3020,11 +3146,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="87"/>
+      <c r="A12" s="86"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -3040,11 +3166,11 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="87"/>
+      <c r="A13" s="86"/>
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3060,8 +3186,8 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -3069,7 +3195,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -3084,15 +3210,15 @@
       <c r="F15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="88"/>
+      <c r="A16" s="90"/>
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -3105,11 +3231,11 @@
       <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="88"/>
+      <c r="A17" s="90"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -3122,11 +3248,11 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="88"/>
+      <c r="A18" s="90"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -3139,11 +3265,11 @@
       <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
+      <c r="A19" s="90"/>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -3156,8 +3282,8 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
@@ -3183,7 +3309,7 @@
       <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="89" t="s">
+      <c r="G21" s="88" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3203,7 +3329,7 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
@@ -3221,7 +3347,7 @@
       <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
@@ -3239,7 +3365,7 @@
       <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="89"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
@@ -3257,7 +3383,7 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="89"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
@@ -3265,7 +3391,7 @@
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="86" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
@@ -3273,31 +3399,31 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="87"/>
+      <c r="A28" s="86"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="87"/>
+      <c r="A29" s="86"/>
       <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="87"/>
+      <c r="A30" s="86"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="87"/>
+      <c r="A31" s="86"/>
       <c r="B31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="87"/>
+      <c r="A32" s="86"/>
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -3309,15 +3435,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,9 +3454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147:F147"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4065,7 +4191,7 @@
       <c r="C28" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E28" s="75" t="s">
@@ -4096,7 +4222,7 @@
       <c r="C29" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -4152,7 +4278,7 @@
       <c r="C31" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E31" s="75" t="s">
@@ -4202,7 +4328,7 @@
       <c r="C33" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E33" s="75" t="s">
@@ -4258,7 +4384,7 @@
       <c r="C35" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E35" s="75" t="s">
@@ -4289,7 +4415,7 @@
       <c r="C36" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E36" s="75" t="s">
@@ -4320,7 +4446,7 @@
       <c r="C37" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E37" s="75" t="s">
@@ -4351,7 +4477,7 @@
       <c r="C38" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E38" s="75" t="s">
@@ -4440,7 +4566,7 @@
       <c r="C41" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E41" s="75" t="s">
@@ -4469,7 +4595,7 @@
       <c r="C42" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E42" s="75" t="s">
@@ -4515,7 +4641,7 @@
       <c r="C44" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E44" s="34" t="s">
@@ -4546,7 +4672,7 @@
       <c r="C45" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E45" s="75" t="s">
@@ -4604,7 +4730,7 @@
       <c r="C47" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E47" s="75" t="s">
@@ -4791,7 +4917,7 @@
       <c r="C54" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E54" s="75" t="s">
@@ -4820,7 +4946,7 @@
       <c r="C55" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E55" s="75" t="s">
@@ -5154,7 +5280,7 @@
       <c r="C69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E69" s="75" t="s">
@@ -5185,7 +5311,7 @@
       <c r="C70" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E70" s="75" t="s">
@@ -5364,7 +5490,7 @@
       <c r="C77" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="90" t="s">
+      <c r="D77" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E77" s="75" t="s">
@@ -5468,7 +5594,7 @@
       <c r="C81" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="90" t="s">
+      <c r="D81" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E81" s="75" t="s">
@@ -5524,7 +5650,7 @@
       <c r="C83" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E83" s="75" t="s">
@@ -5555,7 +5681,7 @@
       <c r="C84" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="90" t="s">
+      <c r="D84" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E84" s="75" t="s">
@@ -5586,7 +5712,7 @@
       <c r="C85" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E85" s="75" t="s">
@@ -5617,7 +5743,7 @@
       <c r="C86" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E86" s="75" t="s">
@@ -5648,7 +5774,7 @@
       <c r="C87" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="90"/>
+      <c r="D87" s="85"/>
       <c r="E87" s="75"/>
       <c r="F87" s="75"/>
       <c r="G87" s="67" t="s">
@@ -6069,7 +6195,7 @@
       <c r="C104" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D104" s="90" t="s">
+      <c r="D104" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E104" s="34" t="s">
@@ -6505,7 +6631,7 @@
       <c r="C120" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="90" t="s">
+      <c r="D120" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E120" s="34" t="s">
@@ -6561,7 +6687,7 @@
       <c r="C122" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="90" t="s">
+      <c r="D122" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E122" s="34" t="s">
@@ -6944,7 +7070,7 @@
       <c r="C137" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D137" s="90" t="s">
+      <c r="D137" s="85" t="s">
         <v>418</v>
       </c>
       <c r="E137" s="34" t="s">
@@ -7310,12 +7436,248 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="91"/>
+      <c r="B3" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="91"/>
+      <c r="B4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="91"/>
+      <c r="B5" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="91"/>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="91"/>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="91"/>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="91"/>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="91"/>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
+      <c r="B11" s="66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="91"/>
+      <c r="B12" s="66" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="91"/>
+      <c r="B13" s="66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="91"/>
+      <c r="B14" s="66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="93"/>
+      <c r="B16" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="93"/>
+      <c r="B17" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="93"/>
+      <c r="B18" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="93"/>
+      <c r="B19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="93"/>
+      <c r="B20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="93"/>
+      <c r="B21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="93"/>
+      <c r="B22" s="66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="93"/>
+      <c r="B23" s="66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A23"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
